--- a/Geoestatistica/Relatorio - Areia Fina/Validação cruzada - preencher.xlsx
+++ b/Geoestatistica/Relatorio - Areia Fina/Validação cruzada - preencher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\Atividades_aulas\Geoestatistica\Relatorio - Areia Fina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF76C7D8-7FD0-4CD2-842D-24BEDE60BD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6046F21-209D-4BE3-B31B-73AE85AC15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F704F3F9-E5AA-4F6F-A0F9-A6C401568917}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F704F3F9-E5AA-4F6F-A0F9-A6C401568917}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>Estimativas</t>
   </si>
@@ -112,27 +112,6 @@
   </si>
   <si>
     <t>próximo de um</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>114.06</t>
-  </si>
-  <si>
-    <t>57.03</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>171.09</t>
-  </si>
-  <si>
-    <t>0.4864</t>
   </si>
 </sst>
 </file>
@@ -163,7 +142,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +179,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,23 +242,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +615,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,49 +636,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1"/>
@@ -715,68 +735,68 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="C3" s="16">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="1">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.1333</v>
+      </c>
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.15859999999999999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.1333</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="H3" s="15">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="18">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="J3" s="19">
         <v>0.12330000000000001</v>
       </c>
-      <c r="K3" s="6">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>34</v>
+      <c r="K3" s="19">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0.48330000000000001</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0.4864</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
+      <c r="B4" s="9">
+        <v>2.0973999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.2896999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0375999999999999</v>
       </c>
       <c r="E4" s="6">
         <v>1.9635</v>
@@ -784,14 +804,14 @@
       <c r="F4" s="6">
         <v>2.1360999999999999</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
+      <c r="G4" s="1">
+        <v>2.3496000000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.3066</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.3506</v>
       </c>
       <c r="J4" s="6">
         <v>3.4929000000000001</v>
@@ -799,14 +819,14 @@
       <c r="K4" s="6">
         <v>3.7936999999999999</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>32</v>
+      <c r="L4" s="6">
+        <v>1.8253999999999999</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.9931000000000001</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1.8073999999999999</v>
       </c>
       <c r="O4" s="6">
         <v>2.2347000000000001</v>
@@ -817,47 +837,47 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="9">
+        <v>134.9495</v>
+      </c>
+      <c r="C5" s="1">
+        <v>127.3314</v>
+      </c>
+      <c r="D5" s="1">
+        <v>139.34540000000001</v>
+      </c>
+      <c r="E5" s="9">
         <v>124.071</v>
       </c>
       <c r="F5" s="6">
         <v>125.31229999999999</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
+      <c r="G5" s="1">
+        <v>49.705599999999997</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44.781100000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>49.487499999999997</v>
       </c>
       <c r="J5" s="6">
-        <v>129.999</v>
+        <v>129.9999</v>
       </c>
       <c r="K5" s="6">
-        <v>130</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>30</v>
+        <v>130.0001</v>
+      </c>
+      <c r="L5" s="6">
+        <v>66.220299999999995</v>
+      </c>
+      <c r="M5" s="9">
+        <v>61.014899999999997</v>
+      </c>
+      <c r="N5" s="9">
+        <v>69.190100000000001</v>
       </c>
       <c r="O5" s="6">
         <v>75.910799999999995</v>
@@ -868,30 +888,48 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="14">
+        <v>1.4345000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>613.72619999999995</v>
+      </c>
+      <c r="D6" s="6">
+        <v>137.83170000000001</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="14">
+        <v>1.6933</v>
+      </c>
+      <c r="H6" s="10">
+        <v>770.93219999999997</v>
+      </c>
+      <c r="I6" s="6">
+        <v>177.81370000000001</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="6"/>
+      <c r="L6" s="14">
+        <v>1.4134</v>
+      </c>
+      <c r="M6">
+        <v>612.48500000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <v>130.143</v>
+      </c>
       <c r="O6" s="6" t="s">
         <v>18</v>
       </c>
@@ -901,9 +939,8 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>363.88979999999998</v>
@@ -911,8 +948,8 @@
       <c r="F7" s="6">
         <v>350.9683</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6">
         <v>367.71109999999999</v>
@@ -920,21 +957,19 @@
       <c r="K7" s="6">
         <v>350.47859999999997</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>359.33420000000001</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <v>344.55739999999997</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>380.71390000000002</v>
@@ -942,8 +977,8 @@
       <c r="F8" s="6">
         <v>367.79239999999999</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
         <v>384.53519999999997</v>
@@ -951,19 +986,17 @@
       <c r="K8" s="6">
         <v>367.30270000000002</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="9"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>376.1583</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="12">
         <v>361.38150000000002</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -973,7 +1006,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -982,137 +1015,128 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>9.9600000000000001E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="1">
         <v>0.11681</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="1">
         <v>9.2300000000000004E-3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>1.176E-2</v>
       </c>
       <c r="F11" s="1">
         <v>1.166E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="1">
         <v>1.1050000000000001E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="1">
         <v>0.11879000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="1">
         <v>1.098E-2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>5.3099999999999996E-3</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="1">
         <v>1.022E-2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="1">
         <v>0.11724999999999999</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="1">
         <v>9.5200000000000007E-3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="1">
         <v>8.2699999999999996E-3</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="1">
         <v>7.5700000000000003E-3</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="1">
         <v>5.4299999999999999E-3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="1">
         <v>4.8399999999999997E-3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>6.6800000000000002E-3</v>
       </c>
       <c r="F12" s="1">
         <v>6.62E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="1">
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="1">
         <v>5.7099999999999998E-3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="1">
         <v>5.3899999999999998E-3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>3.2599999999999999E-3</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="1">
         <v>5.7499999999999999E-3</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="1">
         <v>8.3199999999999993E-3</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="1">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="1">
         <v>4.8199999999999996E-3</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="1">
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>0.79186000000000001</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="1">
         <v>0.79805000000000004</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="1">
         <v>0.79269999999999996</v>
       </c>
       <c r="E13" s="1">
@@ -1121,238 +1145,238 @@
       <c r="F13" s="1">
         <v>0.78395999999999999</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="1">
         <v>0.79974999999999996</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="1">
         <v>0.80037000000000003</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="1">
         <v>0.79873000000000005</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="1">
         <v>0.79129000000000005</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="1">
         <v>0.79269000000000001</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>0.76753000000000005</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="1">
         <v>0.77939000000000003</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>0.76834000000000002</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>0.76932999999999996</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="1">
         <v>0.77153000000000005</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="1">
         <v>0.82374999999999998</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="1">
         <v>0.90342999999999996</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="1">
         <v>0.81352000000000002</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>0.83574999999999999</v>
       </c>
       <c r="F14" s="1">
         <v>0.83667000000000002</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="1">
         <v>0.80120999999999998</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="1">
         <v>0.78779999999999994</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="1">
         <v>0.79164999999999996</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="1">
         <v>0.84323000000000004</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="1">
         <v>0.84325000000000006</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="1">
         <v>0.81759999999999999</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <v>0.91176999999999997</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="1">
         <v>0.81071000000000004</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="1">
         <v>0.83592</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="1">
         <v>0.83831999999999995</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="1">
         <v>76.399600000000007</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="1">
         <v>77.700220000000002</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="1">
         <v>76.658969999999997</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>74.497060000000005</v>
       </c>
       <c r="F15" s="1">
         <v>74.980329999999995</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="1">
         <v>78.031000000000006</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="1">
         <v>78.152789999999996</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="1">
         <v>77.833250000000007</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="1">
         <v>76.388149999999996</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="1">
         <v>76.660439999999994</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>71.869799999999998</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="1">
         <v>74.107910000000004</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <v>72.022099999999995</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="11">
         <v>72.207599999999999</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="1">
         <v>72.621359999999996</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="1">
         <v>0.25416</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="1">
         <v>0.59123999999999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>0.15567</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>0.27334999999999998</v>
       </c>
       <c r="F16" s="1">
         <v>0.33515</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="1">
         <v>0.23329</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>0.15723000000000001</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="1">
         <v>0.18325</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="1">
         <v>0.28946</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="1">
         <v>0.35993000000000003</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="1">
         <v>0.25416</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="1">
         <v>0.59123999999999999</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <v>0.15567</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="1">
         <v>0.27334999999999998</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="1">
         <v>0.33515</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="1">
         <v>0.95428000000000002</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="1">
         <v>0.89144999999999996</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>0.97258</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>0.95099999999999996</v>
       </c>
       <c r="F17" s="1">
         <v>0.93940999999999997</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="1">
         <v>0.95584000000000002</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>0.97277999999999998</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="1">
         <v>0.96774000000000004</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="1">
         <v>0.94684000000000001</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="1">
         <v>0.93337000000000003</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="1">
         <v>0.95428000000000002</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="1">
         <v>0.89144999999999996</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>0.97248000000000001</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="1">
         <v>0.93940999999999997</v>
       </c>
       <c r="Q17" s="1"/>
